--- a/biology/Zoologie/Another_Crab's_Treasure/Another_Crab's_Treasure.xlsx
+++ b/biology/Zoologie/Another_Crab's_Treasure/Another_Crab's_Treasure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Another_Crab%27s_Treasure</t>
+          <t>Another_Crab's_Treasure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Another Crab's Treasure est un jeu vidéo d'action-aventure développé et édité Aggro Crab, sorti le 25 avril 2024 sur Windows, Nintendo Switch, PlayStation 5, et Xbox Series.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Another_Crab%27s_Treasure</t>
+          <t>Another_Crab's_Treasure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Système de jeu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Another Crab's Treasure est un jeu vidéo d'action-aventure à la troisième personne généralement qualifié de Souls-like[1]. Il se déroule sous la surface d'un océan sujet à la pollution marine. Le joueur contrôle Kril, un bernard l'hermite qui a perdu sa coquille. Il peut se servir de déchets trouvés dans les fonds marins (canettes, dés à coudre, noix de coco, etc.) pour s'en servir comme coquille protectrice avec des statistiques et des capacités uniques. L'arme principale est ici une fourchette dont les statistiques peuvent être améliorées[2]. Le système de combat est exigeant, à l'image de la série des Souls. Les microplastiques constituent la monnaie d'échange dans le jeu. À l'inverse de beaucoup de Souls-like, Another Crab's Treasure possède une difficulté réglable[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Another Crab's Treasure est un jeu vidéo d'action-aventure à la troisième personne généralement qualifié de Souls-like. Il se déroule sous la surface d'un océan sujet à la pollution marine. Le joueur contrôle Kril, un bernard l'hermite qui a perdu sa coquille. Il peut se servir de déchets trouvés dans les fonds marins (canettes, dés à coudre, noix de coco, etc.) pour s'en servir comme coquille protectrice avec des statistiques et des capacités uniques. L'arme principale est ici une fourchette dont les statistiques peuvent être améliorées. Le système de combat est exigeant, à l'image de la série des Souls. Les microplastiques constituent la monnaie d'échange dans le jeu. À l'inverse de beaucoup de Souls-like, Another Crab's Treasure possède une difficulté réglable.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Another_Crab%27s_Treasure</t>
+          <t>Another_Crab's_Treasure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Another Crab's Treasure est développé par le studio Aggro Crab, basé à Seattle, dont c'est le deuxième jeu après Going Under. Le jeu est annoncé au Nintendo Indie World de mai 2022[4]. Il sort le 25 avril 2024 sur Windows, Nintendo Switch, PlayStation 5, et Xbox Series[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Another Crab's Treasure est développé par le studio Aggro Crab, basé à Seattle, dont c'est le deuxième jeu après Going Under. Le jeu est annoncé au Nintendo Indie World de mai 2022. Il sort le 25 avril 2024 sur Windows, Nintendo Switch, PlayStation 5, et Xbox Series.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Another_Crab%27s_Treasure</t>
+          <t>Another_Crab's_Treasure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-Another Crab's Treasure reçoit un accueil critique « généralement favorable », obtenant la note de 79/100 sur l'agrégateur Metacritic[10].
-Ventes
-Quatre jours après sa sortie, le jeu s'est vendu à 100 000 exemplaires[11].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Another Crab's Treasure reçoit un accueil critique « généralement favorable », obtenant la note de 79/100 sur l'agrégateur Metacritic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Another_Crab's_Treasure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Another_Crab%27s_Treasure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Réception</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ventes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatre jours après sa sortie, le jeu s'est vendu à 100 000 exemplaires.
 </t>
         </is>
       </c>
